--- a/pywebio1/更新后的表/update-本地专网.xlsx
+++ b/pywebio1/更新后的表/update-本地专网.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="本地专网" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="本地专网" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1088,13 +1088,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+  </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="85" t="inlineStr">
@@ -1262,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.5" customHeight="1">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" s="103" t="inlineStr">
         <is>
           <t>一、定制流量</t>
@@ -1285,7 +1305,7 @@
       <c r="P5" s="110" t="n"/>
       <c r="Q5" s="111" t="n"/>
     </row>
-    <row r="6" ht="29" customFormat="1" customHeight="1" s="42">
+    <row r="6" ht="30" customFormat="1" customHeight="1" s="42">
       <c r="A6" s="112" t="inlineStr">
         <is>
           <t>1</t>
@@ -1308,7 +1328,7 @@
       </c>
       <c r="E6" s="115" t="inlineStr">
         <is>
-          <t>月流量40GB，通话800分钟</t>
+          <t>月流量80GB，通话1000分钟</t>
         </is>
       </c>
       <c r="F6" s="116" t="inlineStr">
@@ -1326,7 +1346,7 @@
       </c>
       <c r="I6" s="118" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>239</t>
         </is>
       </c>
       <c r="J6" s="53" t="inlineStr">
@@ -1336,150 +1356,710 @@
       </c>
       <c r="K6" s="118" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>239</t>
         </is>
       </c>
       <c r="L6" s="118" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>239</t>
         </is>
       </c>
       <c r="M6" s="118" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="N6" s="119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" s="120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" s="121" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="Q6" s="122" t="n"/>
     </row>
-    <row r="7" ht="14.5" customFormat="1" customHeight="1" s="42">
-      <c r="A7" s="123" t="inlineStr">
+    <row r="7" ht="30" customFormat="1" customHeight="1" s="42">
+      <c r="A7" s="112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" s="113" t="inlineStr">
+        <is>
+          <t>物联卡</t>
+        </is>
+      </c>
+      <c r="C7" s="114" t="inlineStr">
+        <is>
+          <t>月包</t>
+        </is>
+      </c>
+      <c r="D7" s="114" t="inlineStr">
+        <is>
+          <t>定向</t>
+        </is>
+      </c>
+      <c r="E7" s="115" t="inlineStr">
+        <is>
+          <t>150GB</t>
+        </is>
+      </c>
+      <c r="F7" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="117" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="H7" s="51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I7" s="118" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J7" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K7" s="118" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="L7" s="118" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="M7" s="118" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="N7" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" s="121" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="Q7" s="122" t="n"/>
+    </row>
+    <row r="8" ht="30" customFormat="1" customHeight="1" s="42">
+      <c r="A8" s="112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" s="113" t="inlineStr">
+        <is>
+          <t>流量池</t>
+        </is>
+      </c>
+      <c r="C8" s="114" t="inlineStr">
+        <is>
+          <t>通用流量</t>
+        </is>
+      </c>
+      <c r="D8" s="114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" s="117" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="H8" s="51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J8" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K8" s="118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L8" s="118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M8" s="118" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N8" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="121" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="Q8" s="122" t="n"/>
+    </row>
+    <row r="9" ht="30" customFormat="1" customHeight="1" s="42">
+      <c r="A9" s="112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B9" s="58" t="inlineStr">
+        <is>
+          <t>园区流量包</t>
+        </is>
+      </c>
+      <c r="C9" s="59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" s="117" t="inlineStr">
+        <is>
+          <t>户</t>
+        </is>
+      </c>
+      <c r="H9" s="51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="118" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J9" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K9" s="118" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L9" s="118" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M9" s="118" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" s="121" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="Q9" s="122" t="n"/>
+    </row>
+    <row r="10" ht="30" customFormat="1" customHeight="1" s="42">
+      <c r="A10" s="112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" s="60" t="inlineStr">
+        <is>
+          <t>定制号卡</t>
+        </is>
+      </c>
+      <c r="C10" s="114" t="n"/>
+      <c r="D10" s="114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="117" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="H10" s="51" t="inlineStr">
+        <is>
+          <t>一半6%,一半13%</t>
+        </is>
+      </c>
+      <c r="I10" s="118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K10" s="118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" s="119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O10" s="120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P10" s="121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q10" s="122" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="123" t="inlineStr">
         <is>
           <t>二、业务隔离费</t>
         </is>
       </c>
-      <c r="B7" s="113" t="n"/>
-      <c r="C7" s="124" t="n"/>
-      <c r="D7" s="124" t="n"/>
-      <c r="E7" s="124" t="n"/>
-      <c r="F7" s="125" t="n"/>
-      <c r="G7" s="126" t="n"/>
-      <c r="H7" s="126" t="n"/>
-      <c r="I7" s="127" t="n"/>
-      <c r="J7" s="23" t="n"/>
-      <c r="K7" s="127" t="n"/>
-      <c r="L7" s="127" t="n"/>
-      <c r="M7" s="127" t="n"/>
-      <c r="N7" s="128" t="n"/>
-      <c r="O7" s="129" t="n"/>
-      <c r="P7" s="130" t="n"/>
-      <c r="Q7" s="131" t="n"/>
+      <c r="B11" s="113" t="n"/>
+      <c r="C11" s="124" t="n"/>
+      <c r="D11" s="124" t="n"/>
+      <c r="E11" s="124" t="n"/>
+      <c r="F11" s="125" t="n"/>
+      <c r="G11" s="126" t="n"/>
+      <c r="H11" s="126" t="n"/>
+      <c r="I11" s="127" t="n"/>
+      <c r="J11" s="23" t="n"/>
+      <c r="K11" s="127" t="n"/>
+      <c r="L11" s="127" t="n"/>
+      <c r="M11" s="127" t="n"/>
+      <c r="N11" s="128" t="n"/>
+      <c r="O11" s="129" t="n"/>
+      <c r="P11" s="130" t="n"/>
+      <c r="Q11" s="131" t="n"/>
     </row>
-    <row r="8" ht="14.5" customFormat="1" customHeight="1" s="42">
-      <c r="A8" s="123" t="inlineStr">
+    <row r="12" ht="30" customFormat="1" customHeight="1" s="43">
+      <c r="A12" s="112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="113" t="inlineStr">
+        <is>
+          <t>定制DNN</t>
+        </is>
+      </c>
+      <c r="C12" s="115" t="inlineStr">
+        <is>
+          <t>专网加密隧道服务</t>
+        </is>
+      </c>
+      <c r="D12" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" s="117" t="inlineStr">
+        <is>
+          <t>线</t>
+        </is>
+      </c>
+      <c r="H12" s="51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I12" s="118" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J12" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="118" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L12" s="118" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M12" s="118" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N12" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" s="121" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="Q12" s="122" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="123" t="inlineStr">
         <is>
           <t>三、固定入网专线</t>
         </is>
       </c>
-      <c r="B8" s="113" t="n"/>
-      <c r="C8" s="124" t="n"/>
-      <c r="D8" s="124" t="n"/>
-      <c r="E8" s="124" t="n"/>
-      <c r="F8" s="125" t="n"/>
-      <c r="G8" s="126" t="n"/>
-      <c r="H8" s="21" t="n"/>
-      <c r="I8" s="127" t="n"/>
-      <c r="J8" s="23" t="n"/>
-      <c r="K8" s="127" t="n"/>
-      <c r="L8" s="127" t="n"/>
-      <c r="M8" s="127" t="n"/>
-      <c r="N8" s="128" t="n"/>
-      <c r="O8" s="129" t="n"/>
-      <c r="P8" s="130" t="n"/>
-      <c r="Q8" s="131" t="n"/>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="124" t="n"/>
+      <c r="D13" s="124" t="n"/>
+      <c r="E13" s="124" t="n"/>
+      <c r="F13" s="125" t="n"/>
+      <c r="G13" s="126" t="n"/>
+      <c r="H13" s="21" t="n"/>
+      <c r="I13" s="127" t="n"/>
+      <c r="J13" s="23" t="n"/>
+      <c r="K13" s="127" t="n"/>
+      <c r="L13" s="127" t="n"/>
+      <c r="M13" s="127" t="n"/>
+      <c r="N13" s="128" t="n"/>
+      <c r="O13" s="129" t="n"/>
+      <c r="P13" s="130" t="n"/>
+      <c r="Q13" s="131" t="n"/>
     </row>
-    <row r="9" ht="14.5" customFormat="1" customHeight="1" s="42">
-      <c r="A9" s="134" t="inlineStr">
+    <row r="14" ht="30" customFormat="1" customHeight="1" s="43">
+      <c r="A14" s="132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B14" s="133" t="inlineStr">
+        <is>
+          <t>5G定制网STN专线</t>
+        </is>
+      </c>
+      <c r="C14" s="115" t="inlineStr">
+        <is>
+          <t>2Gbps</t>
+        </is>
+      </c>
+      <c r="D14" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" s="117" t="inlineStr">
+        <is>
+          <t>线</t>
+        </is>
+      </c>
+      <c r="H14" s="64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I14" s="118" t="inlineStr">
+        <is>
+          <t>180600</t>
+        </is>
+      </c>
+      <c r="J14" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K14" s="118" t="inlineStr">
+        <is>
+          <t>180600</t>
+        </is>
+      </c>
+      <c r="L14" s="118" t="inlineStr">
+        <is>
+          <t>180600</t>
+        </is>
+      </c>
+      <c r="M14" s="118" t="inlineStr">
+        <is>
+          <t>2167200</t>
+        </is>
+      </c>
+      <c r="N14" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" s="121" t="inlineStr">
+        <is>
+          <t>2167200</t>
+        </is>
+      </c>
+      <c r="Q14" s="122" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="134" t="inlineStr">
         <is>
           <t>四、网元定制</t>
         </is>
       </c>
-      <c r="B9" s="135" t="n"/>
-      <c r="C9" s="124" t="n"/>
-      <c r="D9" s="124" t="n"/>
-      <c r="E9" s="124" t="n"/>
-      <c r="F9" s="136" t="n"/>
-      <c r="G9" s="126" t="n"/>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="137" t="n"/>
-      <c r="J9" s="23" t="n"/>
-      <c r="K9" s="127" t="n"/>
-      <c r="L9" s="127" t="n"/>
-      <c r="M9" s="127" t="n"/>
-      <c r="N9" s="128" t="n"/>
-      <c r="O9" s="129" t="n"/>
-      <c r="P9" s="130" t="n"/>
-      <c r="Q9" s="131" t="n"/>
+      <c r="B15" s="135" t="n"/>
+      <c r="C15" s="124" t="n"/>
+      <c r="D15" s="124" t="n"/>
+      <c r="E15" s="124" t="n"/>
+      <c r="F15" s="136" t="n"/>
+      <c r="G15" s="126" t="n"/>
+      <c r="H15" s="32" t="n"/>
+      <c r="I15" s="137" t="n"/>
+      <c r="J15" s="23" t="n"/>
+      <c r="K15" s="127" t="n"/>
+      <c r="L15" s="127" t="n"/>
+      <c r="M15" s="127" t="n"/>
+      <c r="N15" s="128" t="n"/>
+      <c r="O15" s="129" t="n"/>
+      <c r="P15" s="130" t="n"/>
+      <c r="Q15" s="131" t="n"/>
     </row>
-    <row r="10" ht="14.5" customFormat="1" customHeight="1" s="42">
-      <c r="A10" s="34" t="inlineStr">
+    <row r="16" ht="30" customFormat="1" customHeight="1" s="43">
+      <c r="A16" s="112" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B10" s="35" t="inlineStr">
+      <c r="B16" s="113" t="inlineStr">
+        <is>
+          <t>共享式5G UPF服务</t>
+        </is>
+      </c>
+      <c r="C16" s="115" t="inlineStr">
+        <is>
+          <t>800Mbps</t>
+        </is>
+      </c>
+      <c r="D16" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="117" t="inlineStr">
+        <is>
+          <t>线</t>
+        </is>
+      </c>
+      <c r="H16" s="64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I16" s="118" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+      <c r="J16" s="53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K16" s="118" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+      <c r="L16" s="118" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+      <c r="M16" s="118" t="inlineStr">
+        <is>
+          <t>102000</t>
+        </is>
+      </c>
+      <c r="N16" s="119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" s="121" t="inlineStr">
+        <is>
+          <t>102000</t>
+        </is>
+      </c>
+      <c r="Q16" s="122" t="n"/>
+      <c r="R16" s="65" t="n"/>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B17" s="35" t="inlineStr">
         <is>
           <t>项目总计</t>
         </is>
       </c>
-      <c r="C10" s="36" t="n"/>
-      <c r="D10" s="36" t="n"/>
-      <c r="E10" s="37" t="n"/>
-      <c r="F10" s="34" t="n"/>
-      <c r="G10" s="138" t="n"/>
-      <c r="H10" s="138" t="n"/>
-      <c r="I10" s="138" t="n"/>
-      <c r="J10" s="138" t="n"/>
-      <c r="K10" s="139" t="n"/>
-      <c r="L10" s="138" t="n"/>
-      <c r="M10" s="140" t="inlineStr">
-        <is>
-          <t>2028</t>
-        </is>
-      </c>
-      <c r="N10" s="139" t="n"/>
-      <c r="O10" s="141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P10" s="140" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="Q10" s="138" t="n"/>
+      <c r="C17" s="36" t="n"/>
+      <c r="D17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="34" t="n"/>
+      <c r="G17" s="138" t="n"/>
+      <c r="H17" s="138" t="n"/>
+      <c r="I17" s="138" t="n"/>
+      <c r="J17" s="138" t="n"/>
+      <c r="K17" s="139" t="n"/>
+      <c r="L17" s="138" t="n"/>
+      <c r="M17" s="140" t="inlineStr">
+        <is>
+          <t>2280924</t>
+        </is>
+      </c>
+      <c r="N17" s="139" t="n"/>
+      <c r="O17" s="141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P17" s="140" t="inlineStr">
+        <is>
+          <t>2280928</t>
+        </is>
+      </c>
+      <c r="Q17" s="138" t="n"/>
     </row>
-    <row r="11" ht="14.5" customHeight="1"/>
-    <row r="12" ht="29" customFormat="1" customHeight="1" s="43"/>
-    <row r="13" ht="14.5" customHeight="1"/>
-    <row r="14" ht="29" customFormat="1" customHeight="1" s="43"/>
-    <row r="15" ht="14.5" customHeight="1"/>
-    <row r="16" ht="29" customFormat="1" customHeight="1" s="43"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:Q1"/>
